--- a/medicine/Enfance/Françoise_Diep/Françoise_Diep.xlsx
+++ b/medicine/Enfance/Françoise_Diep/Françoise_Diep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Diep</t>
+          <t>Françoise_Diep</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Diep est une bibliothécaire jeunesse et conteuse française, née à Bordeaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Diep</t>
+          <t>Françoise_Diep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bibliothécaire-jeunesse de formation, Françoise Diep est devenue conteuse professionnelle depuis 1990. Elle rencontre Henri Gougaud à Alès et participe avec lui à ses activités de contes durant deux ans, notamment au festival Parole d’Alès qu'il anime. Elle s'est produite en France, Europe, Afrique de l’Ouest et Amérique, dans le milieu scolaire, les structures pour la petite enfance, des bibliothèques, salons du livre, festivals et salles de spectacles[1]. Elle est également formatrice pour le Centre national de la fonction publique territoriale[2]. 
-En 1998, Françoise est invitée au festival burkinabé Yeleen, et devient par la suite artiste associée. À partir de 2001, en collaboration avec le conteur burkinabé François Moïse Bamba, elle a collecté des contes en ville et en brousse. Tous deux ont lancé Aux origines du monde [3], une collection d’albums et de disques édité par Lirabelle[4],[5]. Depuis 2004, elle est la directrice artistique du festival de contes Palabrages dans la région de Nîmes. Elle est devenue conteuse pour l'association Tom Pouce, à Nages-et-Solorgues. Elle habite actuellement à Nîmes[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bibliothécaire-jeunesse de formation, Françoise Diep est devenue conteuse professionnelle depuis 1990. Elle rencontre Henri Gougaud à Alès et participe avec lui à ses activités de contes durant deux ans, notamment au festival Parole d’Alès qu'il anime. Elle s'est produite en France, Europe, Afrique de l’Ouest et Amérique, dans le milieu scolaire, les structures pour la petite enfance, des bibliothèques, salons du livre, festivals et salles de spectacles. Elle est également formatrice pour le Centre national de la fonction publique territoriale. 
+En 1998, Françoise est invitée au festival burkinabé Yeleen, et devient par la suite artiste associée. À partir de 2001, en collaboration avec le conteur burkinabé François Moïse Bamba, elle a collecté des contes en ville et en brousse. Tous deux ont lancé Aux origines du monde , une collection d’albums et de disques édité par Lirabelle,. Depuis 2004, elle est la directrice artistique du festival de contes Palabrages dans la région de Nîmes. Elle est devenue conteuse pour l'association Tom Pouce, à Nages-et-Solorgues. Elle habite actuellement à Nîmes.
 </t>
         </is>
       </c>
